--- a/挖个巨大的坑 v0.04.xlsx
+++ b/挖个巨大的坑 v0.04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antianw\Desktop\个人升华\08_教研体会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C0780-A8E0-493D-A755-99747CD798CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8CBAD-CFDF-47CB-8DC2-E9F2B741AE03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7455" xr2:uid="{6F243A93-2E60-42D4-9B71-7470C67002D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7455" activeTab="1" xr2:uid="{6F243A93-2E60-42D4-9B71-7470C67002D5}"/>
   </bookViews>
   <sheets>
     <sheet name="视频课程系列" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="大咖推荐系列" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">视频课程系列!$A$4:$G$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">视频课程系列!$A$4:$G$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'课本，习题集，文字整理系列'!$A$2:$H$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="906">
   <si>
     <t>知识层次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1913,18 +1914,10 @@
     <t>O174.5/4822</t>
   </si>
   <si>
-    <t>大学物理典型题详解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信息论与编码学习辅导及习题详解</t>
   </si>
   <si>
     <t>傅祖芸</t>
-  </si>
-  <si>
-    <t>大学物理题典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O4-44/4620-1</t>
@@ -2327,12 +2320,6 @@
     <t>物质及其运动规律</t>
   </si>
   <si>
-    <t>这一部分承接上一个表格的内容
-将各门科目相关的课本、习题册、辅导书等进行整理，部分图书在图书馆内有多个版本，欢迎补充
-消灭没书看、没题做的情况。
-部分内容在我的公众号内有所整理</t>
-  </si>
-  <si>
     <t>数学建模算法与应用习题解答</t>
   </si>
   <si>
@@ -2792,12 +2779,444 @@
   <si>
     <t>https://www.bilibili.com/video/av40507227/</t>
   </si>
+  <si>
+    <t>Brian Douglas</t>
+  </si>
+  <si>
+    <t>根轨迹图法</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/av28111543</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/av34612175/</t>
+  </si>
+  <si>
+    <t>Lead/Lag Compensators</t>
+  </si>
+  <si>
+    <t>Routh-Hurwitz Criterion</t>
+  </si>
+  <si>
+    <t>Dr.Nandita Dasgupta</t>
+  </si>
+  <si>
+    <t>VLSI Design</t>
+  </si>
+  <si>
+    <t>微电子工艺</t>
+  </si>
+  <si>
+    <t>王蔚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子线路-非线性部分（第四版） </t>
+  </si>
+  <si>
+    <t>谢嘉奎/宣月清</t>
+  </si>
+  <si>
+    <t>数字信号处理教程（第4版 经典版）</t>
+  </si>
+  <si>
+    <t>程佩青</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘增基/鲍民权 </t>
+  </si>
+  <si>
+    <t>交换原理与技术</t>
+  </si>
+  <si>
+    <t>人民邮电</t>
+  </si>
+  <si>
+    <t>电子线路-线性部分（第五版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冯军/谢嘉奎 </t>
+  </si>
+  <si>
+    <t>通信原理（第7版）</t>
+  </si>
+  <si>
+    <t>樊昌信/曹丽娜</t>
+  </si>
+  <si>
+    <t>专业英语</t>
+  </si>
+  <si>
+    <t>电子与通信专业英语（第3版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李霞/王娟 </t>
+  </si>
+  <si>
+    <t>自动控制原理（第二版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梅晓榕 </t>
+  </si>
+  <si>
+    <t>移动通信原理与系统（第2版）</t>
+  </si>
+  <si>
+    <t>啜钢/王文博</t>
+  </si>
+  <si>
+    <t>北京邮电大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王毓银/陈鸽 </t>
+  </si>
+  <si>
+    <t>数字电路逻辑设计（第二版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高等教育</t>
+  </si>
+  <si>
+    <t>线性代数（第2版）</t>
+  </si>
+  <si>
+    <t>ARM9嵌入式系统设计基础教程（第2版）</t>
+  </si>
+  <si>
+    <t>黄智伟/邓月明</t>
+  </si>
+  <si>
+    <t>北航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微型计算机原理与接口技术（第3版） </t>
+  </si>
+  <si>
+    <t>冯博琴/吴宁</t>
+  </si>
+  <si>
+    <t>EDA技术实用教程--VHDL版（第五版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潘松/黄继业 </t>
+  </si>
+  <si>
+    <t>ARM嵌入式系统基础教程（第2版）</t>
+  </si>
+  <si>
+    <t>周立功/王祖麟</t>
+  </si>
+  <si>
+    <t>数字图像处理（第3版）</t>
+  </si>
+  <si>
+    <t>胡学龙</t>
+  </si>
+  <si>
+    <t>卫星通信</t>
+  </si>
+  <si>
+    <t>卫星导航原理及应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵琳/丁继成 </t>
+  </si>
+  <si>
+    <t>无线网络技术导论（第二版）</t>
+  </si>
+  <si>
+    <t>汪涛</t>
+  </si>
+  <si>
+    <t>信息论与编码（第2版）</t>
+  </si>
+  <si>
+    <t>曹雪虹/张宗橙</t>
+  </si>
+  <si>
+    <t>数据库处理-基础、设计与实现（第十一版）（英文版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (美)克罗恩克</t>
+  </si>
+  <si>
+    <t>数字信号处理基础（英文版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (加)范德维格特 </t>
+  </si>
+  <si>
+    <t>大学物理学（第4版）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王少杰/顾牡</t>
+  </si>
+  <si>
+    <t>大学物理学（第4版）学习指导与能力训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陈中华/闫明</t>
+  </si>
+  <si>
+    <t>同济</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这一部分承接上一个表格的内容
+将各门科目相关的课本、习题册、辅导书等进行整理，部分图书在图书馆内有多个版本，欢迎补充
+消灭没书看、没题做的情况。
+部分内容在我的公众号内有所整理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>现行课本为1（版本可能随时更新），曾用、其他主流课本为2，部分非主流现行课本不纳入此表格</t>
+    </r>
+  </si>
+  <si>
+    <t>我的专业我做主．工学卷</t>
+  </si>
+  <si>
+    <t>G642.3/0262-2</t>
+  </si>
+  <si>
+    <t>颜晓川</t>
+  </si>
+  <si>
+    <t>江苏凤凰教育</t>
+  </si>
+  <si>
+    <t>O151.2/7287-1</t>
+  </si>
+  <si>
+    <t>居余马</t>
+  </si>
+  <si>
+    <t>O4-42/7252-1</t>
+  </si>
+  <si>
+    <t>O4/1194-4#1</t>
+  </si>
+  <si>
+    <t>大学物理</t>
+  </si>
+  <si>
+    <t>O4/1194-6#2</t>
+  </si>
+  <si>
+    <t>大学物理题典</t>
+  </si>
+  <si>
+    <t>大学物理典型题详解</t>
+  </si>
+  <si>
+    <t>O4-44/1244</t>
+  </si>
+  <si>
+    <t>TN710/3744-2</t>
+  </si>
+  <si>
+    <t>模拟电子技术基础</t>
+  </si>
+  <si>
+    <t>童诗白，华成英</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN710.4/0132 </t>
+  </si>
+  <si>
+    <t>模拟电子技术基础 (第五版) 学习辅导与习题解答</t>
+  </si>
+  <si>
+    <t>华成英</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN710.4/2454 </t>
+  </si>
+  <si>
+    <t>TN710/3744-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN911.72/2925-2 </t>
+  </si>
+  <si>
+    <t> TP13/4964-3</t>
+  </si>
+  <si>
+    <t>数字信号处理</t>
+  </si>
+  <si>
+    <t>数字信号处理实践方法：第二版：英文版</t>
+  </si>
+  <si>
+    <t>Emmanuel C.Ifeachor</t>
+  </si>
+  <si>
+    <t>TN911.72/4452</t>
+  </si>
+  <si>
+    <t>TN79/1188-2</t>
+  </si>
+  <si>
+    <t>《数字电路逻辑设计》(第二版)学习指导书</t>
+  </si>
+  <si>
+    <t>王毓银</t>
+  </si>
+  <si>
+    <t>TN79/1188-1</t>
+  </si>
+  <si>
+    <t>TP36/3141-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN702/3149-5 </t>
+  </si>
+  <si>
+    <t>TN911/5614-4</t>
+  </si>
+  <si>
+    <t>通信原理(第7版)学习辅导与考研指导</t>
+  </si>
+  <si>
+    <t>TN911.2/5615-1</t>
+  </si>
+  <si>
+    <t>TN911.2/2234-1</t>
+  </si>
+  <si>
+    <t>TN92/3131-1</t>
+  </si>
+  <si>
+    <t>TN929.5/6087</t>
+  </si>
+  <si>
+    <t>数字图像处理</t>
+  </si>
+  <si>
+    <t>冈萨雷斯</t>
+  </si>
+  <si>
+    <t>数字通信</t>
+  </si>
+  <si>
+    <t>Prokais</t>
+  </si>
+  <si>
+    <t>数字电子技术</t>
+  </si>
+  <si>
+    <t>模拟电子技术</t>
+  </si>
+  <si>
+    <t>数字集成电路：电路、系统与设计</t>
+  </si>
+  <si>
+    <t>TN431.2/5074</t>
+  </si>
+  <si>
+    <t>Jan M. Rabaey</t>
+  </si>
+  <si>
+    <t>Thomas L. Floyd</t>
+  </si>
+  <si>
+    <t>TN79/5032-5</t>
+  </si>
+  <si>
+    <t>Robert L. Boylestad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN01/4024-1 </t>
+  </si>
+  <si>
+    <t>CMOS模拟集成电路设计</t>
+  </si>
+  <si>
+    <t>TN432.02/4422</t>
+  </si>
+  <si>
+    <t>Phillip E. Allen</t>
+  </si>
+  <si>
+    <t>CMOS射频集成电路设计</t>
+  </si>
+  <si>
+    <t>Thomas H.Lee</t>
+  </si>
+  <si>
+    <t>TN432/4040-1</t>
+  </si>
+  <si>
+    <t>微波工程</t>
+  </si>
+  <si>
+    <t>David M. Pozar</t>
+  </si>
+  <si>
+    <t>TN015/3150-2</t>
+  </si>
+  <si>
+    <t>天线</t>
+  </si>
+  <si>
+    <t>John D.Kraus</t>
+  </si>
+  <si>
+    <t>TN82/4244-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP312VH/2226 </t>
+  </si>
+  <si>
+    <t>VHDL数字电路设计教程</t>
+  </si>
+  <si>
+    <t>Volnei A. Pedroni</t>
+  </si>
+  <si>
+    <t>C++ Primer</t>
+  </si>
+  <si>
+    <t>Stanley B. Lippman</t>
+  </si>
+  <si>
+    <t>TP312C/4486-5</t>
+  </si>
+  <si>
+    <t>LATEX入门</t>
+  </si>
+  <si>
+    <t>TS803.23/0433</t>
+  </si>
+  <si>
+    <t>刘海洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS803.23/7244 </t>
+  </si>
+  <si>
+    <t>LATEX入门与提高</t>
+  </si>
+  <si>
+    <t>陈志杰</t>
+  </si>
+  <si>
+    <t>LATEX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2852,12 +3271,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -2886,6 +3299,17 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="寰敓鏂ゆ嫹閿熻剼鐚存嫹"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF32322F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2982,7 +3406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3064,9 +3488,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3076,13 +3497,25 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3106,23 +3539,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3447,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA342FB-7A05-4F44-879F-ABD455279469}">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" activeCellId="1" sqref="G116 M3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3469,27 +3896,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="116.25" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="A1" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="23" t="s">
         <v>428</v>
       </c>
@@ -3501,19 +3928,19 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>753</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="A3" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
@@ -3539,8 +3966,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="30" t="s">
-        <v>607</v>
+      <c r="A5" s="29" t="s">
+        <v>605</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>8</v>
@@ -3562,11 +3989,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>459</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3583,11 +4010,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="15">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>461</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -3604,11 +4031,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="9" customFormat="1" ht="15">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>463</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -3625,17 +4052,17 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>332</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>133</v>
@@ -3651,12 +4078,12 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="45"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>133</v>
@@ -3672,7 +4099,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="45"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
@@ -3689,11 +4116,11 @@
         <v>210</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="45"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +4141,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="45"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -4095,41 +4522,41 @@
         <v>11</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E32" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="G32" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1">
       <c r="A33" s="10"/>
       <c r="B33" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="24"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" s="9" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>208</v>
@@ -4141,7 +4568,7 @@
         <v>210</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4177,7 +4604,7 @@
         <v>354</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>355</v>
@@ -4213,16 +4640,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -4256,7 +4683,7 @@
       <c r="D40" s="24"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -4275,7 +4702,7 @@
         <v>201</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>198</v>
@@ -4314,7 +4741,7 @@
         <v>204</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>51</v>
@@ -4329,19 +4756,19 @@
         <v>46</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E44" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="G44" s="22" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1">
@@ -4350,19 +4777,19 @@
         <v>46</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E45" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="G45" s="22" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4413,19 +4840,19 @@
         <v>41</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E48" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="G48" s="22" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4461,7 +4888,7 @@
         <v>135</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>51</v>
@@ -4477,7 +4904,7 @@
       <c r="D51" s="24"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G51" s="22"/>
     </row>
@@ -4574,7 +5001,7 @@
       <c r="D56" s="24"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G56" s="22"/>
     </row>
@@ -4588,7 +5015,7 @@
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="33" t="s">
         <v>400</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -4611,7 +5038,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="42"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="21" t="s">
         <v>15</v>
       </c>
@@ -4742,19 +5169,19 @@
         <v>16</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4868,19 +5295,19 @@
         <v>17</v>
       </c>
       <c r="C71" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="E71" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>534</v>
-      </c>
       <c r="G71" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="9" customFormat="1" ht="15">
@@ -4889,16 +5316,16 @@
         <v>17</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G72" s="23"/>
     </row>
@@ -4917,7 +5344,7 @@
         <v>321</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G73" s="22" t="s">
         <v>377</v>
@@ -4932,7 +5359,7 @@
       <c r="D74" s="24"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G74" s="22"/>
     </row>
@@ -4966,7 +5393,7 @@
       <c r="D76" s="24"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G76" s="22"/>
     </row>
@@ -5000,7 +5427,7 @@
       <c r="D78" s="24"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G78" s="22"/>
     </row>
@@ -5030,63 +5457,67 @@
       <c r="B80" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="21"/>
+      <c r="C80" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>587</v>
+      </c>
       <c r="F80" s="21" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G80" s="22"/>
     </row>
-    <row r="81" spans="1:7" s="4" customFormat="1">
+    <row r="81" spans="1:7" s="9" customFormat="1">
       <c r="A81" s="11"/>
       <c r="B81" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>342</v>
+        <v>775</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>343</v>
+        <v>774</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>338</v>
+        <v>729</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>541</v>
+      </c>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1">
       <c r="A82" s="11"/>
       <c r="B82" s="21" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="11"/>
       <c r="B83" s="21" t="s">
         <v>322</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>373</v>
@@ -5098,132 +5529,132 @@
         <v>51</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1">
       <c r="A84" s="11"/>
       <c r="B84" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="11"/>
+      <c r="B85" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D85" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F85" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G85" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="40" t="s">
-        <v>605</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>58</v>
-      </c>
+    <row r="86" spans="1:7" s="3" customFormat="1">
+      <c r="A86" s="11"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="40"/>
+      <c r="A87" s="43" t="s">
+        <v>603</v>
+      </c>
       <c r="B87" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="15">
-      <c r="A88" s="40"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="43"/>
       <c r="B88" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>754</v>
+        <v>277</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>756</v>
+        <v>278</v>
       </c>
       <c r="E88" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="15">
+      <c r="A89" s="43"/>
+      <c r="B89" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F88" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="40"/>
-      <c r="B89" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>57</v>
+      <c r="G89" s="23" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="40"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>56</v>
@@ -5235,28 +5666,28 @@
         <v>51</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>430</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="12"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>211</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5265,19 +5696,19 @@
         <v>18</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5286,90 +5717,90 @@
         <v>18</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="12"/>
       <c r="B94" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="12"/>
       <c r="B95" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F95" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="12"/>
       <c r="B96" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G96" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="12"/>
       <c r="B97" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>66</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="12"/>
@@ -5377,19 +5808,19 @@
         <v>23</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5398,28 +5829,28 @@
         <v>23</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="12"/>
       <c r="B100" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>247</v>
@@ -5431,7 +5862,7 @@
         <v>210</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5440,40 +5871,40 @@
         <v>25</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="12"/>
       <c r="B102" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5482,7 +5913,7 @@
         <v>24</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>70</v>
@@ -5494,338 +5925,333 @@
         <v>51</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="9" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="12"/>
       <c r="B104" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="21"/>
+      <c r="C104" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F104" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G104" s="22"/>
-    </row>
-    <row r="105" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A105" s="12"/>
       <c r="B105" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>54</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="E105" s="21"/>
       <c r="F105" s="21" t="s">
-        <v>51</v>
+        <v>541</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A106" s="12"/>
       <c r="B106" s="21" t="s">
-        <v>720</v>
+        <v>24</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>210</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="22" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A107" s="12"/>
       <c r="B107" s="21" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>772</v>
+      </c>
+      <c r="D107" s="28"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="22"/>
+    </row>
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A108" s="12"/>
       <c r="B108" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="D108" s="28"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="22"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="12"/>
+      <c r="B109" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="12"/>
+      <c r="B110" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="12"/>
+      <c r="B111" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="12"/>
+      <c r="B112" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C112" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D112" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E112" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F112" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G112" s="22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A109" s="41" t="s">
-        <v>762</v>
-      </c>
-      <c r="B109" s="21" t="s">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A113" s="44" t="s">
+        <v>759</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="22"/>
+    </row>
+    <row r="114" spans="1:7" s="9" customFormat="1">
+      <c r="A114" s="44"/>
+      <c r="B114" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="22"/>
+    </row>
+    <row r="115" spans="1:7" s="9" customFormat="1">
+      <c r="A115" s="44"/>
+      <c r="B115" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
-    </row>
-    <row r="110" spans="1:7" s="9" customFormat="1">
-      <c r="A110" s="41"/>
-      <c r="B110" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
-    </row>
-    <row r="111" spans="1:7" s="9" customFormat="1">
-      <c r="A111" s="41"/>
-      <c r="B111" s="21" t="s">
-        <v>764</v>
-      </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
-    </row>
-    <row r="112" spans="1:7" s="3" customFormat="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="39" t="s">
+      <c r="C115" s="21"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="22"/>
+    </row>
+    <row r="116" spans="1:7" s="3" customFormat="1">
+      <c r="A116" s="12"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="22"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="B117" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C117" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D117" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E117" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="9" customFormat="1">
-      <c r="A114" s="39"/>
-      <c r="B114" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="39"/>
-      <c r="B115" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="9" customFormat="1">
-      <c r="A116" s="39"/>
-      <c r="B116" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="39"/>
-      <c r="B117" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="9" customFormat="1">
-      <c r="A118" s="14"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="42"/>
+      <c r="B119" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="9" customFormat="1">
+      <c r="A120" s="42"/>
+      <c r="B120" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="42"/>
+      <c r="B121" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="14"/>
-      <c r="B119" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="9" customFormat="1">
-      <c r="A120" s="14"/>
-      <c r="B120" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="C120" s="21"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G120" s="22"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="14"/>
-      <c r="B121" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="C121" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F121" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="9" customFormat="1">
       <c r="A122" s="14"/>
       <c r="B122" s="21" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>108</v>
+        <v>582</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>107</v>
+        <v>584</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>54</v>
@@ -5834,189 +6260,178 @@
         <v>51</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="9" customFormat="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="14"/>
       <c r="B123" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="24"/>
+        <v>324</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>324</v>
+      </c>
       <c r="E123" s="21" t="s">
-        <v>742</v>
+        <v>365</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G123" s="22"/>
-    </row>
-    <row r="124" spans="1:7">
+        <v>366</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="9" customFormat="1">
       <c r="A124" s="14"/>
       <c r="B124" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>54</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C124" s="21"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>87</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="14"/>
       <c r="B125" s="21" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>347</v>
+        <v>89</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>348</v>
+        <v>88</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>344</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="14"/>
       <c r="B126" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G126" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="127" spans="1:7" s="9" customFormat="1">
       <c r="A127" s="14"/>
       <c r="B127" s="21" t="s">
-        <v>572</v>
+        <v>42</v>
       </c>
       <c r="C127" s="21"/>
       <c r="D127" s="24"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
+      <c r="E127" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>541</v>
+      </c>
       <c r="G127" s="22"/>
     </row>
-    <row r="128" spans="1:7" s="3" customFormat="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="14"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="22"/>
-    </row>
-    <row r="129" spans="1:7" ht="15">
-      <c r="A129" s="44" t="s">
+      <c r="B128" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="14"/>
+      <c r="B129" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="14"/>
+      <c r="B130" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G130" s="22"/>
+    </row>
+    <row r="131" spans="1:7" s="9" customFormat="1">
+      <c r="A131" s="14"/>
+      <c r="B131" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="22"/>
+    </row>
+    <row r="132" spans="1:7" s="3" customFormat="1">
+      <c r="A132" s="14"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="22"/>
+    </row>
+    <row r="133" spans="1:7" ht="15">
+      <c r="A133" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G129" s="29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="9" customFormat="1">
-      <c r="A130" s="44"/>
-      <c r="B130" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G130" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="44"/>
-      <c r="B131" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="44"/>
-      <c r="B132" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="9" customFormat="1">
-      <c r="A133" s="28"/>
-      <c r="B133" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>582</v>
       </c>
       <c r="E133" s="21" t="s">
         <v>54</v>
@@ -6024,20 +6439,20 @@
       <c r="F133" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G133" s="22" t="s">
-        <v>580</v>
+      <c r="G133" s="28" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="9" customFormat="1">
-      <c r="A134" s="28"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>581</v>
+        <v>106</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>54</v>
@@ -6046,19 +6461,19 @@
         <v>51</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>583</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="13"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>54</v>
@@ -6067,19 +6482,19 @@
         <v>51</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="13"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>54</v>
@@ -6088,58 +6503,58 @@
         <v>51</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="6" customFormat="1">
-      <c r="A137" s="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="9" customFormat="1">
+      <c r="A137" s="27"/>
       <c r="B137" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>356</v>
+        <v>579</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>357</v>
+        <v>580</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="13"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="9" customFormat="1">
+      <c r="A138" s="27"/>
       <c r="B138" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>220</v>
+        <v>579</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>217</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="13"/>
       <c r="B139" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>102</v>
@@ -6151,848 +6566,936 @@
         <v>51</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="13"/>
       <c r="B140" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="F140" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="9" customFormat="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="6" customFormat="1">
       <c r="A141" s="13"/>
       <c r="B141" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>358</v>
+      </c>
       <c r="F141" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G141" s="22"/>
-    </row>
-    <row r="142" spans="1:7" s="9" customFormat="1">
+        <v>355</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="13"/>
       <c r="B142" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="22"/>
-    </row>
-    <row r="143" spans="1:7" s="9" customFormat="1">
+        <v>39</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="13"/>
       <c r="B143" s="21" t="s">
-        <v>409</v>
+        <v>40</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>409</v>
+        <v>118</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>411</v>
+        <v>54</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="9" customFormat="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="13"/>
       <c r="B144" s="21" t="s">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>598</v>
+        <v>177</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>595</v>
+        <v>178</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>596</v>
+        <v>140</v>
       </c>
       <c r="F144" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>597</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="9" customFormat="1">
       <c r="A145" s="13"/>
       <c r="B145" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>601</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="21"/>
       <c r="F145" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>602</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="1:7" s="9" customFormat="1">
       <c r="A146" s="13"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>423</v>
-      </c>
+      <c r="B146" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="C146" s="21"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="7" customFormat="1">
+      <c r="F146" s="21"/>
+      <c r="G146" s="22"/>
+    </row>
+    <row r="147" spans="1:7" s="9" customFormat="1">
       <c r="A147" s="13"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="22"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="34" t="s">
-        <v>401</v>
-      </c>
+      <c r="B147" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="9" customFormat="1">
+      <c r="A148" s="13"/>
       <c r="B148" s="21" t="s">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="F148" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G148" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="9" customFormat="1">
+      <c r="A149" s="13"/>
+      <c r="B149" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="9" customFormat="1">
+      <c r="A150" s="13"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="7" customFormat="1">
+      <c r="A151" s="13"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="22"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="34"/>
-      <c r="B149" s="21" t="s">
+    <row r="153" spans="1:7">
+      <c r="A153" s="37"/>
+      <c r="B153" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C153" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D153" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E153" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F153" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="G149" s="22" t="s">
+      <c r="G153" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="34"/>
-      <c r="B150" s="21" t="s">
+    <row r="154" spans="1:7">
+      <c r="A154" s="37"/>
+      <c r="B154" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C154" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D154" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E154" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F154" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G150" s="22" t="s">
+      <c r="G154" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="7" customFormat="1">
-      <c r="A151" s="34"/>
-      <c r="B151" s="21" t="s">
+    <row r="155" spans="1:7" s="7" customFormat="1">
+      <c r="A155" s="37"/>
+      <c r="B155" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C155" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D155" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E155" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F155" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="G151" s="22" t="s">
+      <c r="G155" s="22" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1">
-      <c r="A152" s="33"/>
-      <c r="B152" s="21" t="s">
+    <row r="156" spans="1:7" s="9" customFormat="1">
+      <c r="A156" s="32"/>
+      <c r="B156" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G152" s="22"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="15"/>
-      <c r="B153" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="G153" s="22"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="15"/>
-      <c r="B154" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G154" s="22"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="15"/>
-      <c r="B155" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="15"/>
-      <c r="B156" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>186</v>
-      </c>
+      <c r="C156" s="21"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="9" customFormat="1">
+        <v>541</v>
+      </c>
+      <c r="G156" s="22"/>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="15"/>
       <c r="B157" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="21"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21" t="s">
-        <v>543</v>
+        <v>32</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="G157" s="22"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="15"/>
       <c r="B158" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G158" s="22"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="15"/>
       <c r="B159" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="9" customFormat="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="15"/>
       <c r="B160" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>587</v>
+        <v>184</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>588</v>
+        <v>185</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>589</v>
+        <v>186</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>590</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="9" customFormat="1">
       <c r="A161" s="15"/>
       <c r="B161" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>589</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="G161" s="22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="9" customFormat="1">
+        <v>541</v>
+      </c>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="15"/>
       <c r="B162" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="9" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="G162" s="22"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="15"/>
       <c r="B163" s="21" t="s">
-        <v>721</v>
+        <v>44</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>722</v>
+        <v>180</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>723</v>
+        <v>181</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>724</v>
+        <v>182</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>543</v>
+        <v>51</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>725</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="9" customFormat="1">
       <c r="A164" s="15"/>
       <c r="B164" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="C164" s="21"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="22"/>
-    </row>
-    <row r="165" spans="1:7" s="3" customFormat="1">
+        <v>44</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G164" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="9" customFormat="1">
       <c r="A165" s="15"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="22"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="35" t="s">
-        <v>603</v>
-      </c>
+      <c r="B165" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G165" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="9" customFormat="1">
+      <c r="A166" s="15"/>
       <c r="B166" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G166" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="9" customFormat="1">
+      <c r="A167" s="15"/>
+      <c r="B167" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="G167" s="22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="9" customFormat="1">
+      <c r="A168" s="15"/>
+      <c r="B168" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="C168" s="21"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="22"/>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1">
+      <c r="A169" s="15"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="22"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="B170" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C166" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="D166" s="24" t="s">
+      <c r="C170" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E170" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="E166" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="G166" s="22" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="9" customFormat="1">
-      <c r="A167" s="35"/>
-      <c r="B167" s="21" t="s">
+      <c r="F170" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="9" customFormat="1">
+      <c r="A171" s="38"/>
+      <c r="B171" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C167" s="21"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G167" s="22"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="36"/>
-      <c r="B168" s="21" t="s">
+      <c r="C171" s="21"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="G171" s="22"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="39"/>
+      <c r="B172" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G168" s="22"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="19"/>
-      <c r="B169" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="F169" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="19"/>
-      <c r="B170" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="D170" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="9" customFormat="1">
-      <c r="A171" s="19"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21" t="s">
-        <v>760</v>
-      </c>
-      <c r="D171" s="24"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G171" s="22" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="9" customFormat="1">
-      <c r="A172" s="19"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="D172" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>768</v>
-      </c>
-      <c r="F172" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="G172" s="22" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="9" customFormat="1">
+      <c r="G172" s="22"/>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="19"/>
       <c r="B173" s="21" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="19"/>
       <c r="B174" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G174" s="22"/>
-    </row>
-    <row r="175" spans="1:7">
+        <v>330</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="G174" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="9" customFormat="1">
       <c r="A175" s="19"/>
       <c r="B175" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G175" s="22"/>
-    </row>
-    <row r="176" spans="1:7">
+        <v>330</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="D175" s="24"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G175" s="22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="9" customFormat="1">
       <c r="A176" s="19"/>
       <c r="B176" s="21" t="s">
-        <v>618</v>
+        <v>330</v>
       </c>
       <c r="C176" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="F176" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="G176" s="22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="9" customFormat="1">
+      <c r="A177" s="19"/>
+      <c r="B177" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="19"/>
+      <c r="B178" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G178" s="22"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="19"/>
+      <c r="B179" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G179" s="22"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="19"/>
+      <c r="B180" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="C180" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E180" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F180" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="G176" s="22" t="s">
+      <c r="G180" s="22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="3" customFormat="1">
-      <c r="A177" s="19"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="22"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="37" t="s">
-        <v>604</v>
-      </c>
-      <c r="B178" s="21" t="s">
+    <row r="181" spans="1:7" s="3" customFormat="1">
+      <c r="A181" s="19"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="22"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="B182" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C182" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D182" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E182" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F182" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="G182" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="38"/>
-      <c r="B179" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C179" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E179" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F179" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G179" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="20"/>
-      <c r="B180" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C180" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D180" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E180" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G180" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F181" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G181" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="5" customFormat="1">
-      <c r="A182" s="20"/>
-      <c r="B182" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="22"/>
-    </row>
-    <row r="183" spans="1:7" s="5" customFormat="1">
-      <c r="A183" s="20"/>
+    <row r="183" spans="1:7">
+      <c r="A183" s="41"/>
       <c r="B183" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C183" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="D183" s="24"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="22"/>
-    </row>
-    <row r="184" spans="1:7" s="5" customFormat="1">
+      <c r="C183" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G183" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="20"/>
       <c r="B184" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C184" s="24" t="s">
-        <v>371</v>
+        <v>307</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="20"/>
       <c r="B185" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15">
+        <v>307</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="5" customFormat="1">
       <c r="A186" s="20"/>
       <c r="B186" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="E186" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="G186" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15">
+        <v>307</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187" spans="1:7" s="5" customFormat="1">
       <c r="A187" s="20"/>
       <c r="B187" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F187" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G187" s="23" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>307</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="22"/>
+    </row>
+    <row r="188" spans="1:7" s="5" customFormat="1">
       <c r="A188" s="20"/>
       <c r="B188" s="21" t="s">
-        <v>690</v>
+        <v>349</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G188" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="20"/>
+      <c r="B189" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15">
+      <c r="A190" s="20"/>
+      <c r="B190" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F190" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15">
+      <c r="A191" s="20"/>
+      <c r="B191" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="D191" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="20"/>
+      <c r="B192" s="21" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G188" xr:uid="{2C1A45B6-57A6-4ABF-BE45-43E7417EAB47}"/>
+  <autoFilter ref="A4:G192" xr:uid="{2C1A45B6-57A6-4ABF-BE45-43E7417EAB47}"/>
   <mergeCells count="12">
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A113:A115"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A109:A111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G89" r:id="rId1" xr:uid="{A3F9273F-5F1A-473A-8EE9-55F38CAC2D4F}"/>
-    <hyperlink ref="G86" r:id="rId2" xr:uid="{8675A21C-90DE-415F-8FA1-A82AB255F071}"/>
-    <hyperlink ref="G113" r:id="rId3" xr:uid="{68A4EF03-3095-468F-99F4-9FF6D2D42645}"/>
-    <hyperlink ref="G97" r:id="rId4" xr:uid="{A7C488A9-2F92-445C-9365-6D9A4767C4FF}"/>
-    <hyperlink ref="G102" r:id="rId5" xr:uid="{4B5749E0-6A82-4E80-8796-29435E2AD217}"/>
-    <hyperlink ref="G103" r:id="rId6" xr:uid="{728EF8B3-FCA4-40EC-AF57-A993BB556FEA}"/>
+    <hyperlink ref="G90" r:id="rId1" xr:uid="{A3F9273F-5F1A-473A-8EE9-55F38CAC2D4F}"/>
+    <hyperlink ref="G87" r:id="rId2" xr:uid="{8675A21C-90DE-415F-8FA1-A82AB255F071}"/>
+    <hyperlink ref="G117" r:id="rId3" xr:uid="{68A4EF03-3095-468F-99F4-9FF6D2D42645}"/>
+    <hyperlink ref="G98" r:id="rId4" xr:uid="{A7C488A9-2F92-445C-9365-6D9A4767C4FF}"/>
+    <hyperlink ref="G103" r:id="rId5" xr:uid="{4B5749E0-6A82-4E80-8796-29435E2AD217}"/>
+    <hyperlink ref="G104" r:id="rId6" xr:uid="{728EF8B3-FCA4-40EC-AF57-A993BB556FEA}"/>
     <hyperlink ref="G52" r:id="rId7" xr:uid="{7069F80A-EC77-43A2-8638-84EFB9C57709}"/>
-    <hyperlink ref="G121" r:id="rId8" xr:uid="{2D061918-6A55-49FF-8AC1-DD6F62F82301}"/>
-    <hyperlink ref="G124" r:id="rId9" xr:uid="{0BDB053B-A556-40B6-89C5-188939BA8FE7}"/>
-    <hyperlink ref="G117" r:id="rId10" xr:uid="{F25770AE-9CF2-4EB9-B9F2-DE9B4B444865}"/>
-    <hyperlink ref="G115" r:id="rId11" xr:uid="{2C447E99-7550-4DB3-BC10-D9DEDCBBAD39}"/>
-    <hyperlink ref="G135" r:id="rId12" xr:uid="{80343C4D-9CAB-4444-BE08-2AAE3CECCD9A}"/>
-    <hyperlink ref="G130" r:id="rId13" xr:uid="{96399941-916D-4606-A75A-62A348B70285}"/>
-    <hyperlink ref="G132" r:id="rId14" xr:uid="{E38C7F73-E1A1-4907-A003-08766B305363}"/>
-    <hyperlink ref="G139" r:id="rId15" xr:uid="{3A7A6248-30B8-4D5D-86BA-D702B3FDC25B}"/>
-    <hyperlink ref="G148" r:id="rId16" xr:uid="{9518E6B4-D498-479A-92C9-5D6C1CBFCF7D}"/>
-    <hyperlink ref="G150" r:id="rId17" xr:uid="{D983D10A-353D-4AE5-B0E1-AAD5351BF967}"/>
+    <hyperlink ref="G125" r:id="rId8" xr:uid="{2D061918-6A55-49FF-8AC1-DD6F62F82301}"/>
+    <hyperlink ref="G128" r:id="rId9" xr:uid="{0BDB053B-A556-40B6-89C5-188939BA8FE7}"/>
+    <hyperlink ref="G121" r:id="rId10" xr:uid="{F25770AE-9CF2-4EB9-B9F2-DE9B4B444865}"/>
+    <hyperlink ref="G119" r:id="rId11" xr:uid="{2C447E99-7550-4DB3-BC10-D9DEDCBBAD39}"/>
+    <hyperlink ref="G139" r:id="rId12" xr:uid="{80343C4D-9CAB-4444-BE08-2AAE3CECCD9A}"/>
+    <hyperlink ref="G134" r:id="rId13" xr:uid="{96399941-916D-4606-A75A-62A348B70285}"/>
+    <hyperlink ref="G136" r:id="rId14" xr:uid="{E38C7F73-E1A1-4907-A003-08766B305363}"/>
+    <hyperlink ref="G143" r:id="rId15" xr:uid="{3A7A6248-30B8-4D5D-86BA-D702B3FDC25B}"/>
+    <hyperlink ref="G152" r:id="rId16" xr:uid="{9518E6B4-D498-479A-92C9-5D6C1CBFCF7D}"/>
+    <hyperlink ref="G154" r:id="rId17" xr:uid="{D983D10A-353D-4AE5-B0E1-AAD5351BF967}"/>
     <hyperlink ref="G5" r:id="rId18" xr:uid="{EE5756F4-40CC-4FFB-880B-4F6FAA5ACB41}"/>
     <hyperlink ref="G22" r:id="rId19" xr:uid="{D77C7D70-3913-4A81-B953-35DF0AE61133}"/>
     <hyperlink ref="G49" r:id="rId20" xr:uid="{7698C6D9-0BFB-42FF-9E3B-14C1AA953339}"/>
@@ -7004,30 +7507,30 @@
     <hyperlink ref="G58" r:id="rId26" xr:uid="{878E7CB5-01F9-43B7-BB76-7A2311FA699C}"/>
     <hyperlink ref="G59" r:id="rId27" xr:uid="{FB7BD6F1-EF75-40AB-9616-55575F3CAEE2}"/>
     <hyperlink ref="G70" r:id="rId28" xr:uid="{A671AA84-DE83-4A9A-8B7F-0AFB738F25AC}"/>
-    <hyperlink ref="G178" r:id="rId29" xr:uid="{EBB155F5-0E3E-407B-9697-CA9669BD2FCE}"/>
+    <hyperlink ref="G182" r:id="rId29" xr:uid="{EBB155F5-0E3E-407B-9697-CA9669BD2FCE}"/>
     <hyperlink ref="G31" r:id="rId30" xr:uid="{CADF97C1-688D-4474-A2D4-79730D48DB08}"/>
-    <hyperlink ref="G94" r:id="rId31" xr:uid="{D3148748-6183-4372-9192-C3EDE41659DD}"/>
+    <hyperlink ref="G95" r:id="rId31" xr:uid="{D3148748-6183-4372-9192-C3EDE41659DD}"/>
     <hyperlink ref="G75" r:id="rId32" xr:uid="{8E0D7B14-780C-44B9-9A8F-0ED4A0778C29}"/>
     <hyperlink ref="G77" r:id="rId33" xr:uid="{D7F06F54-3330-42E8-A601-3AC3DF616D7F}"/>
-    <hyperlink ref="G95" r:id="rId34" xr:uid="{12A9C4BB-1431-4FC0-BA0B-C5EF76BCFD32}"/>
+    <hyperlink ref="G96" r:id="rId34" xr:uid="{12A9C4BB-1431-4FC0-BA0B-C5EF76BCFD32}"/>
     <hyperlink ref="G35" r:id="rId35" xr:uid="{03A50553-178A-4D4D-87AE-B3DE06BBACDC}"/>
     <hyperlink ref="G68" r:id="rId36" xr:uid="{DABA599D-7179-43EB-8DFC-12F2FE767133}"/>
     <hyperlink ref="G64" r:id="rId37" xr:uid="{DACAC12D-3B81-43ED-86DC-F8BD4A709C94}"/>
-    <hyperlink ref="G140" r:id="rId38" xr:uid="{62EE0BF7-AAF1-4DC2-817B-BD7D8889BE65}"/>
-    <hyperlink ref="G159" r:id="rId39" xr:uid="{BAEFD094-963D-4808-BDCD-AA8529DAE826}"/>
-    <hyperlink ref="G156" r:id="rId40" xr:uid="{4C7383E7-09ED-463B-AA95-E2065BCA89BA}"/>
+    <hyperlink ref="G144" r:id="rId38" xr:uid="{62EE0BF7-AAF1-4DC2-817B-BD7D8889BE65}"/>
+    <hyperlink ref="G163" r:id="rId39" xr:uid="{BAEFD094-963D-4808-BDCD-AA8529DAE826}"/>
+    <hyperlink ref="G160" r:id="rId40" xr:uid="{4C7383E7-09ED-463B-AA95-E2065BCA89BA}"/>
     <hyperlink ref="G39" r:id="rId41" xr:uid="{1F883A52-CC3F-4CD0-A958-A5BB15F82B93}"/>
     <hyperlink ref="G37" r:id="rId42" xr:uid="{9C9E04EB-BC2E-471E-AA3B-E4759E05F199}"/>
     <hyperlink ref="G47" r:id="rId43" xr:uid="{57ABF047-3BB0-484A-943C-ECCA40B9BF4E}"/>
     <hyperlink ref="G41" r:id="rId44" xr:uid="{D6D85A75-73C9-4D08-B926-40C2C2BD0202}"/>
     <hyperlink ref="G43" r:id="rId45" xr:uid="{2A806E8D-F63F-434D-8FB4-D68FC8DE7C30}"/>
     <hyperlink ref="G50" r:id="rId46" xr:uid="{248EB88D-5E96-4E67-9375-1FC8E8973574}"/>
-    <hyperlink ref="G149" r:id="rId47" xr:uid="{A0FE3341-8C66-4997-B505-EF37F8D479BC}"/>
-    <hyperlink ref="G91" r:id="rId48" xr:uid="{E99353B8-4A5E-45A0-BBB8-AB96177049CB}"/>
+    <hyperlink ref="G153" r:id="rId47" xr:uid="{A0FE3341-8C66-4997-B505-EF37F8D479BC}"/>
+    <hyperlink ref="G92" r:id="rId48" xr:uid="{E99353B8-4A5E-45A0-BBB8-AB96177049CB}"/>
     <hyperlink ref="G17" r:id="rId49" xr:uid="{B49C0202-B306-43F5-B1EB-1D1D289DF066}"/>
-    <hyperlink ref="G138" r:id="rId50" xr:uid="{8935D3AD-7B14-465B-9E04-A8DF74750714}"/>
-    <hyperlink ref="G136" r:id="rId51" xr:uid="{4815327D-39DA-45BB-91B6-96FED37EC6FF}"/>
-    <hyperlink ref="G131" r:id="rId52" xr:uid="{96D453C0-7F5D-4EFB-8AFD-781A53B64BB3}"/>
+    <hyperlink ref="G142" r:id="rId50" xr:uid="{8935D3AD-7B14-465B-9E04-A8DF74750714}"/>
+    <hyperlink ref="G140" r:id="rId51" xr:uid="{4815327D-39DA-45BB-91B6-96FED37EC6FF}"/>
+    <hyperlink ref="G135" r:id="rId52" xr:uid="{96D453C0-7F5D-4EFB-8AFD-781A53B64BB3}"/>
     <hyperlink ref="G62" r:id="rId53" xr:uid="{894A055D-7999-482A-B747-AE3E71F13C4E}"/>
     <hyperlink ref="G63" r:id="rId54" xr:uid="{81677189-9B4A-4CA2-8C8A-6D7C1E8CF79D}"/>
     <hyperlink ref="G60" r:id="rId55" xr:uid="{04E50EF9-257A-4A9F-A6C3-E2C7B4325788}"/>
@@ -7037,35 +7540,35 @@
     <hyperlink ref="G14" r:id="rId59" xr:uid="{77D0C89B-EFD3-43C3-B5D0-2D4A6D411D2C}"/>
     <hyperlink ref="G12" r:id="rId60" xr:uid="{E81892F4-09AE-48A6-B352-69A5211B8178}"/>
     <hyperlink ref="G15" r:id="rId61" xr:uid="{BD57FFD6-F319-4E32-A2B8-57E5AD65A673}"/>
-    <hyperlink ref="G99" r:id="rId62" xr:uid="{63B7C33D-DB98-4F46-9CD6-3621428C9FF7}"/>
-    <hyperlink ref="G108" r:id="rId63" xr:uid="{1088693D-9749-4BFC-B53F-76C13A91D168}"/>
-    <hyperlink ref="G105" r:id="rId64" xr:uid="{03334AEA-3760-4EAC-8085-FEB18A73EDDE}"/>
-    <hyperlink ref="G122" r:id="rId65" xr:uid="{A3CF0393-F831-4B11-BE1A-937D3B24C3F0}"/>
-    <hyperlink ref="G176" r:id="rId66" xr:uid="{ED421CBD-EEE5-4FFC-946D-DF0515956FB1}"/>
-    <hyperlink ref="G100" r:id="rId67" xr:uid="{D61B2ABA-BA16-4B8A-A455-5F12592D0CCE}"/>
+    <hyperlink ref="G100" r:id="rId62" xr:uid="{63B7C33D-DB98-4F46-9CD6-3621428C9FF7}"/>
+    <hyperlink ref="G112" r:id="rId63" xr:uid="{1088693D-9749-4BFC-B53F-76C13A91D168}"/>
+    <hyperlink ref="G109" r:id="rId64" xr:uid="{03334AEA-3760-4EAC-8085-FEB18A73EDDE}"/>
+    <hyperlink ref="G126" r:id="rId65" xr:uid="{A3CF0393-F831-4B11-BE1A-937D3B24C3F0}"/>
+    <hyperlink ref="G180" r:id="rId66" xr:uid="{ED421CBD-EEE5-4FFC-946D-DF0515956FB1}"/>
+    <hyperlink ref="G101" r:id="rId67" xr:uid="{D61B2ABA-BA16-4B8A-A455-5F12592D0CCE}"/>
     <hyperlink ref="G42" r:id="rId68" xr:uid="{B26A92CC-1E9E-4DAF-96A2-B016C4C7D857}"/>
     <hyperlink ref="G55" r:id="rId69" xr:uid="{0C7FC2B6-39B5-404F-A089-D6CB35F5EBEB}"/>
     <hyperlink ref="G54" r:id="rId70" xr:uid="{EE90025C-C7F0-4C74-B5FA-9794FA49DABF}"/>
-    <hyperlink ref="G101" r:id="rId71" xr:uid="{A7BFED8F-4C01-49BE-BEF0-D89368250FF9}"/>
-    <hyperlink ref="G92" r:id="rId72" xr:uid="{6F86AEC6-12BE-48DC-AAD5-ABADC4B432FD}"/>
-    <hyperlink ref="G98" r:id="rId73" xr:uid="{98B48FDA-190C-4BE6-83E4-D8609EE19A3C}"/>
-    <hyperlink ref="G87" r:id="rId74" xr:uid="{0D0FBD98-7F86-4D65-A312-2347FC2D7E9D}"/>
-    <hyperlink ref="G93" r:id="rId75" xr:uid="{32B02F87-EECD-4FF7-AB86-92E9B3374720}"/>
-    <hyperlink ref="G107" r:id="rId76" xr:uid="{8EC82FCD-FB3B-47D1-8AC2-807684610ECD}"/>
-    <hyperlink ref="G155" r:id="rId77" xr:uid="{DF5D1280-6890-4AF2-8A0E-A6E4FFA0424E}"/>
-    <hyperlink ref="G84" r:id="rId78" xr:uid="{5EDC3D26-7D70-459D-AA65-2E7645E7E6DC}"/>
-    <hyperlink ref="G179" r:id="rId79" xr:uid="{EE61A7C3-BED5-4FD5-8A3B-D0C645745E25}"/>
-    <hyperlink ref="G180" r:id="rId80" xr:uid="{7945684E-A1B9-4E38-9BB1-BCD2AF766816}"/>
-    <hyperlink ref="G181" r:id="rId81" xr:uid="{FF3F38CE-FEBD-4373-BB10-E16CE4DA7179}"/>
+    <hyperlink ref="G102" r:id="rId71" xr:uid="{A7BFED8F-4C01-49BE-BEF0-D89368250FF9}"/>
+    <hyperlink ref="G93" r:id="rId72" xr:uid="{6F86AEC6-12BE-48DC-AAD5-ABADC4B432FD}"/>
+    <hyperlink ref="G99" r:id="rId73" xr:uid="{98B48FDA-190C-4BE6-83E4-D8609EE19A3C}"/>
+    <hyperlink ref="G88" r:id="rId74" xr:uid="{0D0FBD98-7F86-4D65-A312-2347FC2D7E9D}"/>
+    <hyperlink ref="G94" r:id="rId75" xr:uid="{32B02F87-EECD-4FF7-AB86-92E9B3374720}"/>
+    <hyperlink ref="G111" r:id="rId76" xr:uid="{8EC82FCD-FB3B-47D1-8AC2-807684610ECD}"/>
+    <hyperlink ref="G159" r:id="rId77" xr:uid="{DF5D1280-6890-4AF2-8A0E-A6E4FFA0424E}"/>
+    <hyperlink ref="G85" r:id="rId78" xr:uid="{5EDC3D26-7D70-459D-AA65-2E7645E7E6DC}"/>
+    <hyperlink ref="G183" r:id="rId79" xr:uid="{EE61A7C3-BED5-4FD5-8A3B-D0C645745E25}"/>
+    <hyperlink ref="G184" r:id="rId80" xr:uid="{7945684E-A1B9-4E38-9BB1-BCD2AF766816}"/>
+    <hyperlink ref="G185" r:id="rId81" xr:uid="{FF3F38CE-FEBD-4373-BB10-E16CE4DA7179}"/>
     <hyperlink ref="G79" r:id="rId82" xr:uid="{1F8A5ABB-2D6B-48E5-A8D5-834ED43DE0C1}"/>
-    <hyperlink ref="G81" r:id="rId83" xr:uid="{58310AA1-B468-4CD3-9578-8DC832341ECF}"/>
-    <hyperlink ref="G125" r:id="rId84" xr:uid="{589E4478-F8E5-4D31-BB97-CA4440794F93}"/>
+    <hyperlink ref="G82" r:id="rId83" xr:uid="{58310AA1-B468-4CD3-9578-8DC832341ECF}"/>
+    <hyperlink ref="G129" r:id="rId84" xr:uid="{589E4478-F8E5-4D31-BB97-CA4440794F93}"/>
     <hyperlink ref="G36" r:id="rId85" xr:uid="{9F108D4F-11EA-4C44-AA63-7264BAE67113}"/>
-    <hyperlink ref="G137" r:id="rId86" xr:uid="{D9084AEE-341D-4DAF-AE87-D91510351417}"/>
-    <hyperlink ref="G169" r:id="rId87" xr:uid="{72B1A96F-3C8E-44F1-9668-617145D90A68}"/>
-    <hyperlink ref="G119" r:id="rId88" xr:uid="{7852D074-5182-4074-9300-4D68B03D16B4}"/>
-    <hyperlink ref="G82" r:id="rId89" xr:uid="{711E8315-1531-409D-82DF-66EC82D71756}"/>
-    <hyperlink ref="G83" r:id="rId90" xr:uid="{2698B645-8DE5-415B-926C-09630C880D05}"/>
+    <hyperlink ref="G141" r:id="rId86" xr:uid="{D9084AEE-341D-4DAF-AE87-D91510351417}"/>
+    <hyperlink ref="G173" r:id="rId87" xr:uid="{72B1A96F-3C8E-44F1-9668-617145D90A68}"/>
+    <hyperlink ref="G123" r:id="rId88" xr:uid="{7852D074-5182-4074-9300-4D68B03D16B4}"/>
+    <hyperlink ref="G83" r:id="rId89" xr:uid="{711E8315-1531-409D-82DF-66EC82D71756}"/>
+    <hyperlink ref="G84" r:id="rId90" xr:uid="{2698B645-8DE5-415B-926C-09630C880D05}"/>
     <hyperlink ref="G73" r:id="rId91" xr:uid="{AAC02D33-138D-4634-9334-BA2BE5A0CAF1}"/>
     <hyperlink ref="G66" r:id="rId92" xr:uid="{616B820B-46F1-43DF-A924-2C4742C4BE54}"/>
     <hyperlink ref="G67" r:id="rId93" xr:uid="{EC5E1FB8-D8F3-4754-9239-348A2500376F}"/>
@@ -7074,32 +7577,33 @@
     <hyperlink ref="G20" r:id="rId96" xr:uid="{12E38864-56E3-4515-B62A-D0A9D78E68F9}"/>
     <hyperlink ref="G29" r:id="rId97" xr:uid="{70C9D510-9681-4237-846A-5B368199762A}"/>
     <hyperlink ref="G69" r:id="rId98" xr:uid="{1542FA16-677B-4303-8BB1-6A5B1AFDA024}"/>
-    <hyperlink ref="G143" r:id="rId99" xr:uid="{358DB776-7C91-40BD-A4CA-3192C374E240}"/>
-    <hyperlink ref="G184" r:id="rId100" xr:uid="{9F0135BE-1951-490A-996A-45462F29A436}"/>
-    <hyperlink ref="G173" r:id="rId101" xr:uid="{A1E21443-5EFD-4516-94C8-B3FF7AF3CE39}"/>
-    <hyperlink ref="G170" r:id="rId102" xr:uid="{E6A229AE-AA4F-4A2F-BB54-350739D90A1E}"/>
-    <hyperlink ref="G146" r:id="rId103" xr:uid="{9DC806C0-91F3-442D-8FCE-4EB4817F33E5}"/>
+    <hyperlink ref="G147" r:id="rId99" xr:uid="{358DB776-7C91-40BD-A4CA-3192C374E240}"/>
+    <hyperlink ref="G188" r:id="rId100" xr:uid="{9F0135BE-1951-490A-996A-45462F29A436}"/>
+    <hyperlink ref="G177" r:id="rId101" xr:uid="{A1E21443-5EFD-4516-94C8-B3FF7AF3CE39}"/>
+    <hyperlink ref="G174" r:id="rId102" xr:uid="{E6A229AE-AA4F-4A2F-BB54-350739D90A1E}"/>
+    <hyperlink ref="G150" r:id="rId103" xr:uid="{9DC806C0-91F3-442D-8FCE-4EB4817F33E5}"/>
     <hyperlink ref="G27" r:id="rId104" xr:uid="{44E9FC92-3F54-4A7A-9244-651922F4A285}"/>
     <hyperlink ref="E2" r:id="rId105" xr:uid="{B2325B82-5529-415A-8725-3B3CEB74E0D0}"/>
-    <hyperlink ref="G186" r:id="rId106" xr:uid="{DE5FE9DA-CB1A-4978-915A-15C264C43F2A}"/>
+    <hyperlink ref="G190" r:id="rId106" xr:uid="{DE5FE9DA-CB1A-4978-915A-15C264C43F2A}"/>
     <hyperlink ref="G6" r:id="rId107" xr:uid="{5CDFD837-AF5A-4B24-B538-8F30A8DDA4A4}"/>
     <hyperlink ref="G71" r:id="rId108" xr:uid="{54D352BF-4D09-4198-BFE7-0910DE25A187}"/>
-    <hyperlink ref="G187" r:id="rId109" xr:uid="{AD8480CA-8931-4B1A-80BF-4A7C26582B18}"/>
-    <hyperlink ref="G129" r:id="rId110" xr:uid="{A4C9E6B6-A5D1-42F6-B9E4-E9204B6B7D13}"/>
-    <hyperlink ref="G88" r:id="rId111" xr:uid="{59ADF1A8-4AA0-47DC-86F5-E8129F83AE0B}"/>
+    <hyperlink ref="G191" r:id="rId109" xr:uid="{AD8480CA-8931-4B1A-80BF-4A7C26582B18}"/>
+    <hyperlink ref="G133" r:id="rId110" xr:uid="{A4C9E6B6-A5D1-42F6-B9E4-E9204B6B7D13}"/>
+    <hyperlink ref="G89" r:id="rId111" xr:uid="{59ADF1A8-4AA0-47DC-86F5-E8129F83AE0B}"/>
+    <hyperlink ref="D105" r:id="rId112" tooltip="Brian Douglas" display="https://www.youtube.com/user/ControlLectures" xr:uid="{19F570D2-25CE-4961-9E72-5B9283E4A300}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId112"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId113"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF08495D-4F7E-4EE7-BA97-3F91E2FD2371}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7115,15 +7619,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="67.5" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -7136,7 +7640,7 @@
         <v>465</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>466</v>
@@ -7148,1302 +7652,1676 @@
         <v>468</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
-        <v>607</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="29" t="s">
+        <v>605</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="C3" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>830</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="C5" s="26"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45" t="s">
-        <v>619</v>
-      </c>
+      <c r="A8" s="36"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A9" s="36"/>
       <c r="B9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A10" s="45"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>487</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="45"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="G11" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="G12" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>833</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>10</v>
+      </c>
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>10</v>
+      </c>
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>471</v>
+        <v>661</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>476</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="22"/>
+        <v>725</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:8">
+        <v>725</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>694</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>152</v>
+        <v>700</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>657</v>
+        <v>488</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>655</v>
+        <v>483</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1">
       <c r="A31" s="10"/>
+      <c r="B31" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="21" t="s">
-        <v>659</v>
+        <v>489</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>660</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10"/>
-      <c r="C32" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="B32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>664</v>
+        <v>625</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>626</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>471</v>
+        <v>628</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>475</v>
+        <v>626</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>476</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1">
       <c r="A35" s="10"/>
+      <c r="B35" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" s="21" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>525</v>
+        <v>619</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="21" t="s">
+        <v>620</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>529</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1">
       <c r="A36" s="10"/>
+      <c r="B36" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C36" s="21" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>527</v>
+        <v>619</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="21" t="s">
+        <v>620</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>528</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>692</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="10"/>
       <c r="B38" s="21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>694</v>
+        <v>533</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>692</v>
+        <v>535</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>538</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="10"/>
       <c r="B39" s="21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>700</v>
+        <v>536</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>701</v>
+        <v>537</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="10"/>
       <c r="B40" s="21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>701</v>
+        <v>537</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>702</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>696</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>698</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+        <v>257</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="10"/>
       <c r="B42" s="21" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>483</v>
+        <v>666</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="21" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>488</v>
+        <v>711</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>483</v>
+        <v>712</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1">
+        <v>713</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="10"/>
       <c r="B44" s="21" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>489</v>
+        <v>714</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>490</v>
+        <v>712</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>713</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="21" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="10"/>
       <c r="B46" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>630</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1">
       <c r="A47" s="10"/>
+      <c r="B47" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="21" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>629</v>
+        <v>550</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>632</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1">
       <c r="A48" s="10"/>
+      <c r="B48" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C48" s="21" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>550</v>
+      </c>
       <c r="F48" s="21" t="s">
-        <v>623</v>
+        <v>546</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1">
       <c r="A49" s="10"/>
+      <c r="B49" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C49" s="21" t="s">
-        <v>621</v>
+        <v>549</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="E49" s="9"/>
+        <v>551</v>
+      </c>
       <c r="F49" s="21" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" customHeight="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1">
       <c r="A50" s="10"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="B50" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="10"/>
       <c r="B51" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="10"/>
-      <c r="C52" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="B52" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="10"/>
-      <c r="C53" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B53" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="21" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33" t="s">
+        <v>400</v>
+      </c>
       <c r="B55" s="21" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C55" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="33"/>
+      <c r="B57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="11"/>
+      <c r="B58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11"/>
+      <c r="B59" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11"/>
+      <c r="B60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="11"/>
+      <c r="B61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="11"/>
+      <c r="B62" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="11"/>
+      <c r="B63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11"/>
+      <c r="B64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="11"/>
+      <c r="B65" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="11"/>
+      <c r="B66" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="11"/>
+      <c r="B67" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="11"/>
+      <c r="B68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="11"/>
+      <c r="B69" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="11"/>
+      <c r="B70" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="11"/>
+      <c r="B71" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="F71" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="F55" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="10"/>
-      <c r="B57" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>715</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>546</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="C61" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="C62" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="C63" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="10"/>
-      <c r="B64" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="10"/>
-      <c r="B66" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="10"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="42"/>
-      <c r="B71" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="11"/>
       <c r="B72" s="21" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7">
+        <v>670</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="11"/>
       <c r="B73" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="11"/>
       <c r="B74" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="11"/>
       <c r="B75" s="21" t="s">
-        <v>16</v>
+        <v>528</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>645</v>
+        <v>887</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>648</v>
+        <v>888</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>654</v>
+        <v>546</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="11"/>
       <c r="B76" s="21" t="s">
-        <v>16</v>
+        <v>528</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>649</v>
+        <v>890</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>648</v>
+        <v>891</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>654</v>
+        <v>546</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="11"/>
       <c r="B77" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>319</v>
+      </c>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="11"/>
       <c r="B78" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="11"/>
       <c r="B79" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="11"/>
       <c r="B80" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>333</v>
+      </c>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="11"/>
       <c r="B81" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>335</v>
+      </c>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="11"/>
       <c r="B82" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>322</v>
+      </c>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="11"/>
       <c r="B83" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>322</v>
+      </c>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="11"/>
       <c r="B84" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="11"/>
+        <v>293</v>
+      </c>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="B85" s="21" t="s">
-        <v>530</v>
+        <v>14</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="11"/>
+        <v>632</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="12"/>
       <c r="B86" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="G86" s="22"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="12"/>
       <c r="B87" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="12"/>
       <c r="B88" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="22"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="12"/>
       <c r="B89" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G89" s="22"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="12"/>
       <c r="B90" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A91" s="12"/>
       <c r="B91" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G91" s="22"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="12"/>
       <c r="B92" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="H92" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="12"/>
       <c r="B93" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="G93" s="22"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="11"/>
-      <c r="G94" s="22"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="H93" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="12"/>
+      <c r="B94" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="12"/>
       <c r="B95" s="21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>633</v>
+        <v>506</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="12"/>
       <c r="B96" s="21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>636</v>
+        <v>516</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>637</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="12"/>
       <c r="B97" s="21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>638</v>
+        <v>778</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>634</v>
+        <v>779</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>639</v>
+        <v>849</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="12"/>
       <c r="B98" s="21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>640</v>
+        <v>881</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>641</v>
+        <v>883</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>642</v>
+        <v>882</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="12"/>
       <c r="B99" s="21" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>640</v>
+        <v>884</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>641</v>
+        <v>885</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>643</v>
+        <v>886</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="12"/>
       <c r="B100" s="21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>498</v>
+        <v>554</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1">
+        <v>555</v>
+      </c>
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="12"/>
       <c r="B101" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="12"/>
       <c r="B102" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="H102" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="12"/>
       <c r="B103" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="H103" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="12"/>
       <c r="B104" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="12"/>
       <c r="B105" s="21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>509</v>
+        <v>566</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="12"/>
+      <c r="B106" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="C106" s="21" t="s">
-        <v>518</v>
+        <v>821</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>520</v>
+        <v>822</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G106" s="22"/>
+      <c r="H106" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="12"/>
-      <c r="G107" s="22"/>
+      <c r="B107" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="12"/>
       <c r="B108" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="22"/>
+        <v>852</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="12"/>
       <c r="B109" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G109" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="12"/>
       <c r="B110" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>555</v>
+        <v>792</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>556</v>
+        <v>793</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>548</v>
+        <v>651</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>557</v>
+        <v>851</v>
       </c>
       <c r="H110" s="9">
         <v>1</v>
@@ -8452,630 +9330,816 @@
     <row r="111" spans="1:8">
       <c r="A111" s="12"/>
       <c r="B111" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>559</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="12"/>
       <c r="B112" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="G112" s="22"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="12"/>
       <c r="B113" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="G113" s="22"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="12"/>
       <c r="B114" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>288</v>
+      </c>
+      <c r="G114" s="22"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="12"/>
       <c r="B115" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>568</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="12"/>
-      <c r="G116" s="22"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="G115" s="22"/>
+    </row>
+    <row r="116" spans="1:8" ht="27">
+      <c r="A116" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="18"/>
       <c r="B117" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>511</v>
+        <v>857</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>498</v>
+        <v>858</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>799</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="12"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="18"/>
       <c r="B118" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" s="22"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="14"/>
       <c r="B119" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" s="22"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="14"/>
       <c r="B120" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="22"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="H120" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="14"/>
       <c r="B121" s="21" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="G121" s="22"/>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="12"/>
+    <row r="122" spans="1:8">
+      <c r="A122" s="14"/>
       <c r="B122" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>803</v>
       </c>
       <c r="G122" s="22"/>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="12"/>
+    <row r="123" spans="1:8">
+      <c r="A123" s="14"/>
       <c r="B123" s="21" t="s">
-        <v>288</v>
+        <v>29</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>803</v>
       </c>
       <c r="G123" s="22"/>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:8">
+      <c r="A124" s="14"/>
       <c r="B124" s="21" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G124" s="22"/>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="12"/>
-      <c r="G125" s="22"/>
-    </row>
-    <row r="126" spans="1:7" ht="27">
-      <c r="A126" s="18" t="s">
-        <v>403</v>
-      </c>
+    <row r="125" spans="1:8">
+      <c r="A125" s="14"/>
+      <c r="B125" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="H125" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="14"/>
       <c r="B126" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="22"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="14"/>
       <c r="B127" s="21" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="G127" s="22"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="14"/>
       <c r="B128" s="21" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="G128" s="22"/>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="14"/>
+    <row r="129" spans="1:8" ht="27">
+      <c r="A129" s="17" t="s">
+        <v>402</v>
+      </c>
       <c r="B129" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" s="22"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="13"/>
       <c r="B130" s="21" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="G130" s="22"/>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="14"/>
+    <row r="131" spans="1:8">
+      <c r="A131" s="13"/>
       <c r="B131" s="21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G131" s="22"/>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="14"/>
+    <row r="132" spans="1:8">
+      <c r="A132" s="13"/>
       <c r="B132" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G132" s="22"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="H132" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="13"/>
       <c r="B133" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G133" s="22"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>679</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="13"/>
       <c r="B134" s="21" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="G134" s="22"/>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="14"/>
+    <row r="135" spans="1:8">
+      <c r="A135" s="13"/>
       <c r="B135" s="21" t="s">
-        <v>326</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D135" s="21"/>
       <c r="G135" s="22"/>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="14"/>
-      <c r="G136" s="22"/>
-    </row>
-    <row r="137" spans="1:7" ht="27">
-      <c r="A137" s="17" t="s">
-        <v>402</v>
-      </c>
+    <row r="136" spans="1:8">
+      <c r="A136" s="13"/>
+      <c r="B136" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="13"/>
       <c r="B137" s="21" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G137" s="22"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="13"/>
       <c r="B138" s="21" t="s">
-        <v>38</v>
+        <v>409</v>
       </c>
       <c r="G138" s="22"/>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="13"/>
+    <row r="139" spans="1:8" ht="27">
+      <c r="A139" s="16" t="s">
+        <v>401</v>
+      </c>
       <c r="B139" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G139" s="22"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="15"/>
       <c r="B140" s="21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>681</v>
+        <v>787</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="13"/>
+        <v>620</v>
+      </c>
+      <c r="G140" s="22"/>
+      <c r="H140" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="15"/>
       <c r="B141" s="21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>685</v>
+        <v>863</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>682</v>
+        <v>788</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="13"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="15"/>
       <c r="B142" s="21" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="G142" s="22"/>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="13"/>
+    <row r="143" spans="1:8">
+      <c r="A143" s="15"/>
       <c r="B143" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="21"/>
-      <c r="G143" s="22"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="15"/>
       <c r="B144" s="21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>687</v>
+        <v>817</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>683</v>
+        <v>818</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>689</v>
+        <v>864</v>
+      </c>
+      <c r="H144" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="13"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G145" s="22"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="13"/>
+      <c r="A146" s="15"/>
       <c r="B146" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="G146" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="H146" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="13"/>
-      <c r="G147" s="22"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="H147" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="13"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>594</v>
+      </c>
       <c r="G148" s="22"/>
     </row>
-    <row r="149" spans="1:8" ht="27">
-      <c r="A149" s="16" t="s">
-        <v>401</v>
-      </c>
+    <row r="149" spans="1:8">
+      <c r="A149" s="15"/>
       <c r="B149" s="21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>515</v>
+        <v>707</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>516</v>
+        <v>705</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>517</v>
+        <v>708</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="15"/>
       <c r="B150" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G150" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="H150" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="15"/>
       <c r="B151" s="21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="G151" s="22"/>
+        <v>502</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="15"/>
       <c r="B152" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="15"/>
       <c r="B153" s="21" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>784</v>
       </c>
       <c r="G153" s="22"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="15"/>
       <c r="B154" s="21" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="G154" s="22"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="15"/>
+      <c r="A155" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="B155" s="21" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>546</v>
       </c>
       <c r="G155" s="22"/>
+      <c r="H155" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="15"/>
+      <c r="A156" s="19"/>
       <c r="B156" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>710</v>
+        <v>868</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>708</v>
+        <v>869</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>711</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="15"/>
+      <c r="A157" s="19"/>
       <c r="B157" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="H157" s="9">
+        <v>318</v>
+      </c>
+      <c r="G157" s="22"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="19"/>
+      <c r="B158" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G158" s="22"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="19"/>
+      <c r="B159" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G159" s="22"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="19"/>
+      <c r="B160" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G160" s="22"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="19"/>
+      <c r="B161" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="19"/>
+      <c r="B162" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162" s="22"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="19"/>
+      <c r="B163" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G163" s="22"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G164" s="22"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="20"/>
+      <c r="B165" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G165" s="22"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="20"/>
+      <c r="B166" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="F166" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G166" s="22"/>
+      <c r="H166" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="15"/>
-      <c r="B158" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D158" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="G158" s="22" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="15"/>
-      <c r="B159" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="G159" s="22" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="15"/>
-      <c r="B160" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G160" s="22"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="15"/>
-      <c r="B161" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G161" s="22"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="15"/>
-      <c r="G162" s="22"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G163" s="22"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="19"/>
-      <c r="B164" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G164" s="22"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="19"/>
-      <c r="B165" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="G165" s="22"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="19"/>
-      <c r="B166" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="G166" s="22"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="19"/>
+    <row r="167" spans="1:8">
+      <c r="A167" s="20"/>
       <c r="B167" s="21" t="s">
-        <v>416</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C167" s="24"/>
       <c r="G167" s="22"/>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="19"/>
+    <row r="168" spans="1:8">
+      <c r="A168" s="20"/>
       <c r="B168" s="21" t="s">
-        <v>331</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C168" s="24"/>
       <c r="G168" s="22"/>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="19"/>
+    <row r="169" spans="1:8">
+      <c r="A169" s="20"/>
       <c r="B169" s="21" t="s">
-        <v>327</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C169" s="24"/>
       <c r="G169" s="22"/>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="19"/>
-      <c r="B170" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G170" s="22"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="19"/>
-      <c r="G171" s="22"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G172" s="22"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="20"/>
-      <c r="B173" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="G173" s="22"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="20"/>
-      <c r="G174" s="22"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="20"/>
-      <c r="C175" s="24"/>
-      <c r="G175" s="22"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="20"/>
-      <c r="C176" s="24"/>
-      <c r="G176" s="22"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="20"/>
-      <c r="C177" s="24"/>
-      <c r="G177" s="22"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="20"/>
-      <c r="B178" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C178" s="24"/>
-      <c r="G178" s="22"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="20"/>
-      <c r="B179" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15">
-      <c r="A180" s="20"/>
-      <c r="B180" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="G180" s="23"/>
+    <row r="170" spans="1:8">
+      <c r="A170" s="20"/>
+      <c r="B170" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="20"/>
+      <c r="B171" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15">
+      <c r="A172" s="20"/>
+      <c r="B172" s="9"/>
+      <c r="G172" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H169" xr:uid="{564D27DC-9B8C-412F-9EB0-4DAAD36A096C}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9094,13 +10158,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
